--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07706403177297293</v>
+        <v>0.08658538737642299</v>
       </c>
       <c r="H2" t="n">
-        <v>-41.36083030834881</v>
+        <v>-34.11588900330445</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.962600136727866</v>
+        <v>11.09720476824272</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1124740774366604</v>
+        <v>0.1003643442651757</v>
       </c>
       <c r="H3" t="n">
-        <v>26.32257316706254</v>
+        <v>12.72181564629117</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6357095149997479</v>
+        <v>-0.6362626895486008</v>
       </c>
       <c r="H4" t="n">
-        <v>3.309709325333396</v>
+        <v>-3.39960620511847</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7284720500639754</v>
+        <v>-0.635638224653324</v>
       </c>
       <c r="H5" t="n">
-        <v>19.3056189709698</v>
+        <v>-4.101745327378339</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2301812006741532</v>
+        <v>0.1713750758374028</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.471385268581726</v>
+        <v>-30.36584484041292</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3548163526301116</v>
+        <v>0.3806497397478641</v>
       </c>
       <c r="H7" t="n">
-        <v>116.5865858241089</v>
+        <v>132.3557719809244</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0833034705638494</v>
+        <v>0.1118397479653579</v>
       </c>
       <c r="H8" t="n">
-        <v>-49.60739787148442</v>
+        <v>-32.34500455713895</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.177561989597881</v>
+        <v>0.2124975058568356</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.985761013000763</v>
+        <v>8.921390360598384</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1037119591063422</v>
+        <v>-0.1360603570835038</v>
       </c>
       <c r="H10" t="n">
-        <v>81.48484269375453</v>
+        <v>-138.0910814425618</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08642721760688855</v>
+        <v>-0.09776905627177691</v>
       </c>
       <c r="H11" t="n">
-        <v>-27.23041345534235</v>
+        <v>17.68086490856194</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1801412192738205</v>
+        <v>0.1747859421836568</v>
       </c>
       <c r="H12" t="n">
-        <v>13.27550040510263</v>
+        <v>9.908021853321596</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2332456983636747</v>
+        <v>0.2460904436293652</v>
       </c>
       <c r="H13" t="n">
-        <v>13.41229053324411</v>
+        <v>19.65785901368248</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1527425894705368</v>
+        <v>0.2087152063909201</v>
       </c>
       <c r="H14" t="n">
-        <v>-19.34302782311036</v>
+        <v>10.21376980133935</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1916494931764391</v>
+        <v>0.2301319581552699</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.3111890879302</v>
+        <v>-7.912377271219825</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05972416029693114</v>
+        <v>0.05385407473209116</v>
       </c>
       <c r="H16" t="n">
-        <v>63.71643665007044</v>
+        <v>47.6253022292823</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05342036810944784</v>
+        <v>0.0249146863594033</v>
       </c>
       <c r="H17" t="n">
-        <v>50.60467851649682</v>
+        <v>-29.75959428415728</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1480126827005862</v>
+        <v>0.1426927472281291</v>
       </c>
       <c r="H18" t="n">
-        <v>-14.59865219595357</v>
+        <v>-17.66818415287008</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1997423367860489</v>
+        <v>0.1659454741328804</v>
       </c>
       <c r="H19" t="n">
-        <v>58.83710604628342</v>
+        <v>31.96150248796986</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1078357517350804</v>
+        <v>0.1167005661561528</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.945163645846773</v>
+        <v>1.786768076873927</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1181886972007573</v>
+        <v>0.1602754673295104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.71920248338093</v>
+        <v>59.63878643684927</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07252651408901963</v>
+        <v>0.08632827573073851</v>
       </c>
       <c r="H22" t="n">
-        <v>-23.00560033680631</v>
+        <v>-8.353602164188718</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07714320956034004</v>
+        <v>0.07187625681153532</v>
       </c>
       <c r="H23" t="n">
-        <v>-28.89370615959465</v>
+        <v>-33.74848847853746</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1825005173525919</v>
+        <v>-0.1991847205090597</v>
       </c>
       <c r="H24" t="n">
-        <v>46.44049993311247</v>
+        <v>-59.82809513920385</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1623743704210896</v>
+        <v>-0.2095999551699858</v>
       </c>
       <c r="H25" t="n">
-        <v>-27.00769277255293</v>
+        <v>5.778330145632152</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1685953868641593</v>
+        <v>0.1582152947984669</v>
       </c>
       <c r="H26" t="n">
-        <v>6.046961402230893</v>
+        <v>-0.4821450170865214</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2134751705909989</v>
+        <v>0.2213303484106095</v>
       </c>
       <c r="H27" t="n">
-        <v>6.489286136453599</v>
+        <v>10.4077384612342</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02838027168101139</v>
+        <v>0.01760782440066697</v>
       </c>
       <c r="H28" t="n">
-        <v>-453.4082266453174</v>
+        <v>319.2632285717464</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01701749376383031</v>
+        <v>0.01891004639548182</v>
       </c>
       <c r="H29" t="n">
-        <v>10.66495066788556</v>
+        <v>22.97224141966725</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08658538737642299</v>
+        <v>0.09769597576622248</v>
       </c>
       <c r="H2" t="n">
-        <v>-34.11588900330445</v>
+        <v>-25.66167679853846</v>
       </c>
       <c r="I2" t="n">
-        <v>11.09720476824272</v>
+        <v>33.29302245774368</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1003643442651757</v>
+        <v>0.09605050813595715</v>
       </c>
       <c r="H3" t="n">
-        <v>12.72181564629117</v>
+        <v>7.87683365147724</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6362626895486008</v>
+        <v>-0.5892784171921228</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.39960620511847</v>
+        <v>4.235848991760185</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.635638224653324</v>
+        <v>-0.6458596125124123</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.101745327378339</v>
+        <v>-5.775754653012443</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1713750758374028</v>
+        <v>0.1794482936002075</v>
       </c>
       <c r="H6" t="n">
-        <v>-30.36584484041292</v>
+        <v>-27.08548627260313</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3806497397478641</v>
+        <v>0.3486035798085087</v>
       </c>
       <c r="H7" t="n">
-        <v>132.3557719809244</v>
+        <v>112.7941922549925</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1118397479653579</v>
+        <v>0.1246453306811028</v>
       </c>
       <c r="H8" t="n">
-        <v>-32.34500455713895</v>
+        <v>-24.59854897190949</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2124975058568356</v>
+        <v>0.1709887539645877</v>
       </c>
       <c r="H9" t="n">
-        <v>8.921390360598384</v>
+        <v>-12.35505215578009</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1360603570835038</v>
+        <v>-0.08955367222847441</v>
       </c>
       <c r="H10" t="n">
-        <v>-138.0910814425618</v>
+        <v>-56.70935403281615</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09776905627177691</v>
+        <v>-0.0910819325612508</v>
       </c>
       <c r="H11" t="n">
-        <v>17.68086490856194</v>
+        <v>23.31125821592646</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1747859421836568</v>
+        <v>0.2186243686942796</v>
       </c>
       <c r="H12" t="n">
-        <v>9.908021853321596</v>
+        <v>37.4742819240659</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2460904436293652</v>
+        <v>0.2454527102231195</v>
       </c>
       <c r="H13" t="n">
-        <v>19.65785901368248</v>
+        <v>19.34777052390841</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2087152063909201</v>
+        <v>0.1633314461548659</v>
       </c>
       <c r="H14" t="n">
-        <v>10.21376980133935</v>
+        <v>-13.75149554692259</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2301319581552699</v>
+        <v>0.2186041130327111</v>
       </c>
       <c r="H15" t="n">
-        <v>-7.912377271219825</v>
+        <v>-12.52526051017337</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05385407473209116</v>
+        <v>0.0424890268819675</v>
       </c>
       <c r="H16" t="n">
-        <v>47.6253022292823</v>
+        <v>16.47132489198356</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0249146863594033</v>
+        <v>0.0498025332165964</v>
       </c>
       <c r="H17" t="n">
-        <v>-29.75959428415728</v>
+        <v>40.40514451389804</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1426927472281291</v>
+        <v>0.1459611505117161</v>
       </c>
       <c r="H18" t="n">
-        <v>-17.66818415287008</v>
+        <v>-15.78235896213192</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1659454741328804</v>
+        <v>0.1974803338811424</v>
       </c>
       <c r="H19" t="n">
-        <v>31.96150248796986</v>
+        <v>57.03833868897304</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1167005661561528</v>
+        <v>0.1005002179685333</v>
       </c>
       <c r="H20" t="n">
-        <v>1.786768076873927</v>
+        <v>-12.34324978037785</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1602754673295104</v>
+        <v>0.1083073201965206</v>
       </c>
       <c r="H21" t="n">
-        <v>59.63878643684927</v>
+        <v>7.87707842307011</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08632827573073851</v>
+        <v>0.06356757921470642</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.353602164188718</v>
+        <v>-32.51643676584996</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07187625681153532</v>
+        <v>0.05412745353925746</v>
       </c>
       <c r="H23" t="n">
-        <v>-33.74848847853746</v>
+        <v>-50.10834215829632</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1991847205090597</v>
+        <v>-0.2317487216623107</v>
       </c>
       <c r="H24" t="n">
-        <v>-59.82809513920385</v>
+        <v>-85.95782166206843</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2095999551699858</v>
+        <v>-0.2398536863299895</v>
       </c>
       <c r="H25" t="n">
-        <v>5.778330145632152</v>
+        <v>-7.821658780457375</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1582152947984669</v>
+        <v>0.1722455443511939</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.4821450170865214</v>
+        <v>8.342920487110876</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2213303484106095</v>
+        <v>0.2082760644615324</v>
       </c>
       <c r="H27" t="n">
-        <v>10.4077384612342</v>
+        <v>3.895780302769106</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01760782440066697</v>
+        <v>0.03661646163937396</v>
       </c>
       <c r="H28" t="n">
-        <v>319.2632285717464</v>
+        <v>555.9702218303879</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01891004639548182</v>
+        <v>0.07998696664967388</v>
       </c>
       <c r="H29" t="n">
-        <v>22.97224141966725</v>
+        <v>420.1561311674374</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>